--- a/artfynd/A 21672-2021.xlsx
+++ b/artfynd/A 21672-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2057287</v>
+        <v>2057284</v>
       </c>
       <c r="B2" t="n">
         <v>78098</v>
@@ -716,7 +716,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -726,7 +726,7 @@
         <v>6668841.911068412</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -779,25 +779,25 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal kolad tallhögstubbe i gammal tallskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>293616</v>
+        <v>293615</v>
       </c>
       <c r="B3" t="n">
         <v>79433</v>
@@ -833,7 +833,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -843,7 +843,7 @@
         <v>6668841.911068412</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -896,25 +896,25 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal kolad tallhögstubbe i gammal tallskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6475992</v>
+        <v>6475991</v>
       </c>
       <c r="B4" t="n">
         <v>78072</v>
@@ -950,7 +950,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -960,7 +960,7 @@
         <v>6668841.911068412</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1013,25 +1013,25 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal kolad tallhögstubbe i gammal tallskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1976571</v>
+        <v>1976570</v>
       </c>
       <c r="B5" t="n">
         <v>77258</v>
@@ -1067,7 +1067,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1077,7 +1077,7 @@
         <v>6668841.911068412</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,18 +1130,18 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal kolad tallhögstubbe i gammal tallskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2167982</v>
+        <v>2167981</v>
       </c>
       <c r="B7" t="n">
         <v>77532</v>
@@ -1301,7 +1301,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1311,7 +1311,7 @@
         <v>6669022.146185246</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>äldre/gammal tall i gammal tallskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1559454</v>
+        <v>1559450</v>
       </c>
       <c r="B8" t="n">
         <v>89412</v>
@@ -1418,7 +1418,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1428,7 +1428,7 @@
         <v>6668560.261466241</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1481,25 +1481,25 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>äldre/gammal tall i gammal tallskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>143071</v>
+        <v>143069</v>
       </c>
       <c r="B9" t="n">
         <v>77541</v>
@@ -1535,7 +1535,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1545,7 +1545,7 @@
         <v>6668910.17643463</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1598,25 +1598,25 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal björk i gammal tallskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1559455</v>
+        <v>1559451</v>
       </c>
       <c r="B10" t="n">
         <v>89412</v>
@@ -1652,7 +1652,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1662,7 +1662,7 @@
         <v>6668790.151528561</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>äldre/gammal tall i gammal tallskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>143070</v>
+        <v>143068</v>
       </c>
       <c r="B11" t="n">
         <v>77541</v>
@@ -1769,7 +1769,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1779,7 +1779,7 @@
         <v>6669000.243741914</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal björk i gammal tallskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2057286</v>
+        <v>2057055</v>
       </c>
       <c r="B12" t="n">
         <v>78098</v>
@@ -1886,7 +1886,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1896,7 +1896,7 @@
         <v>6668739.708265967</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1949,25 +1949,25 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal tallstubbe i gammal tallskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1969918</v>
+        <v>1969914</v>
       </c>
       <c r="B13" t="n">
         <v>78569</v>
@@ -2003,7 +2003,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>väster om Stormossen, Dlr</t>
+          <t>Storsjöån, NO om Vittjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -2013,7 +2013,7 @@
         <v>6669029.248461636</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2066,18 +2066,18 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Sandtallskog med hög medelålder</t>
+          <t>gammal asp i kanten av tallkärr</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Janolof Hermansson, Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
